--- a/doc/excel/[sample_sysUser1]系统账号信息.xlsx
+++ b/doc/excel/[sample_sysUser1]系统账号信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ly0401\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60DB3C-476F-4F28-81F3-4D6FCF1B4410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A051D8-972F-4B7A-899B-054DFBA05E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="4545" windowWidth="25485" windowHeight="6315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -23,66 +23,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>账号类别</t>
+  </si>
+  <si>
+    <t>所在单位</t>
+  </si>
+  <si>
+    <t>办公电话</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>学工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>户籍地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称级别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>账号类别</t>
-  </si>
-  <si>
-    <t>所在单位</t>
-  </si>
-  <si>
-    <t>办公电话</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>学工号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>籍贯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>户籍地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称级别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员职级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职级提级时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退休时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -170,24 +187,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,103 +489,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="17.625" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="4" customWidth="1"/>
+    <col min="2" max="4" width="14" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="4" customWidth="1"/>
+    <col min="8" max="13" width="14.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14" style="4" customWidth="1"/>
+    <col min="15" max="15" width="15.875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.375" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"教职工,本科生,研究生"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{D307FFB6-1698-47B5-8BA0-811C91372906}">
+      <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/excel/[sample_sysUser1]系统账号信息.xlsx
+++ b/doc/excel/[sample_sysUser1]系统账号信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A051D8-972F-4B7A-899B-054DFBA05E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8511134-7320-48EC-93F4-4D8490FDD70C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>性别</t>
   </si>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>退休时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -502,15 +506,15 @@
     <col min="5" max="5" width="7" style="4" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="4" customWidth="1"/>
-    <col min="8" max="13" width="14.125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14" style="4" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.375" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="4"/>
+    <col min="8" max="14" width="14.125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.375" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,38 +548,41 @@
       <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -590,14 +597,15 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"教职工,本科生,研究生"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{D307FFB6-1698-47B5-8BA0-811C91372906}">
